--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelEmptyIEnumerableRenderTest/TestRenderEmptyIEnumerableVerticalRowsShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelEmptyIEnumerableRenderTest/TestRenderEmptyIEnumerableVerticalRowsShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -391,7 +391,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:F2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -412,7 +412,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s"/>
+      <x:c r="C2" s="1"/>
       <x:c r="D2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
